--- a/时间管理大师/2022/第三期/habit.xlsx
+++ b/时间管理大师/2022/第三期/habit.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16995" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17005" uniqueCount="593">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -2517,6 +2517,42 @@
     <t>别想太多，只管去做</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">         2022/11/17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每有思路的忙碌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用自己源码编译</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装客户端程序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2022/11/18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要说困，你为啥做天看手机60分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己争取了吗？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯：6：30 一定起床</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理优先级高的问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3619,6 +3655,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3626,9 +3663,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3650,6 +3684,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3679,11 +3716,29 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3691,14 +3746,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3736,30 +3797,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3790,34 +3827,33 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -4340,7 +4376,7 @@
       <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="167" t="s">
         <v>298</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -4351,19 +4387,19 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="167"/>
+      <c r="A6" s="168"/>
       <c r="B6" s="36" t="s">
         <v>327</v>
       </c>
       <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="167"/>
+      <c r="A7" s="168"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="168" t="s">
         <v>306</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -4374,14 +4410,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="167"/>
+      <c r="A9" s="168"/>
       <c r="B9" s="36" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="168" t="s">
         <v>305</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -4392,14 +4428,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="167"/>
+      <c r="A11" s="168"/>
       <c r="B11" s="36" t="s">
         <v>329</v>
       </c>
       <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="167" t="s">
+      <c r="A12" s="168" t="s">
         <v>304</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -4410,7 +4446,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="167"/>
+      <c r="A13" s="168"/>
       <c r="B13" s="36" t="s">
         <v>324</v>
       </c>
@@ -4866,18 +4902,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="172"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="169"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="172"/>
     </row>
     <row r="4" spans="1:4" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -4902,18 +4938,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="177" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="169"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
     </row>
     <row r="8" spans="1:4" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
@@ -4928,18 +4964,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="171" t="s">
+      <c r="A9" s="175" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="169"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="171"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
     </row>
     <row r="11" spans="1:4" ht="41.35" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
@@ -4970,48 +5006,48 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="172" t="s">
+      <c r="A13" s="173" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="173" t="s">
+      <c r="B13" s="176" t="s">
         <v>99</v>
       </c>
       <c r="C13" s="174"/>
       <c r="D13" s="174"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="172"/>
-      <c r="B14" s="173"/>
+      <c r="A14" s="173"/>
+      <c r="B14" s="176"/>
       <c r="C14" s="174"/>
       <c r="D14" s="174"/>
     </row>
     <row r="15" spans="1:4" ht="87.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="169" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="176" t="s">
+      <c r="B15" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="169"/>
-      <c r="D15" s="168"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="169"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="168"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="168"/>
+      <c r="A16" s="169"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="169"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="172"/>
-      <c r="B17" s="172"/>
+      <c r="A17" s="173"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="174"/>
-      <c r="D17" s="172"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="172"/>
-      <c r="B18" s="172"/>
+      <c r="A18" s="173"/>
+      <c r="B18" s="173"/>
       <c r="C18" s="174"/>
-      <c r="D18" s="172"/>
+      <c r="D18" s="173"/>
     </row>
     <row r="19" spans="1:4" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
@@ -5040,22 +5076,22 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="168"/>
-      <c r="B21" s="175" t="s">
+      <c r="A21" s="169"/>
+      <c r="B21" s="170" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="175" t="s">
+      <c r="C21" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="168" t="s">
+      <c r="D21" s="169" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="168"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="168"/>
+      <c r="A22" s="169"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="169"/>
     </row>
     <row r="24" spans="1:4" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
@@ -5127,6 +5163,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -5139,22 +5191,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5429,13 +5465,13 @@
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="133" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="137" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -5446,36 +5482,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="156"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="138"/>
     </row>
     <row r="3" spans="1:5" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134" t="s">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="143" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="138"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="158"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="144"/>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="141" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -5483,15 +5519,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="138"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
       <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="139" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -5505,7 +5541,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="137"/>
+      <c r="A8" s="145"/>
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
@@ -5517,7 +5553,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="138"/>
+      <c r="A9" s="140"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
@@ -5525,78 +5561,78 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134" t="s">
+      <c r="B10" s="141"/>
+      <c r="C10" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="134"/>
+      <c r="D10" s="141"/>
     </row>
     <row r="11" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="138"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
     </row>
     <row r="12" spans="1:5" ht="52.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="139" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="139" t="s">
+      <c r="D12" s="148" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="137"/>
+      <c r="A13" s="145"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="140"/>
+      <c r="D13" s="149"/>
     </row>
     <row r="14" spans="1:5" ht="87.65" x14ac:dyDescent="0.25">
-      <c r="A14" s="137"/>
+      <c r="A14" s="145"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="140"/>
+      <c r="D14" s="149"/>
       <c r="E14">
         <f>B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="137"/>
+      <c r="A15" s="145"/>
       <c r="B15" s="5"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="140"/>
+      <c r="D15" s="149"/>
     </row>
     <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="137"/>
+      <c r="A16" s="145"/>
       <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="140"/>
+      <c r="D16" s="149"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="137"/>
+      <c r="A17" s="145"/>
       <c r="B17" s="5"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="140"/>
+      <c r="D17" s="149"/>
     </row>
     <row r="18" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="138"/>
+      <c r="A18" s="140"/>
       <c r="B18" s="6"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="141"/>
+      <c r="D18" s="150"/>
     </row>
     <row r="19" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
@@ -5613,42 +5649,42 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="145" t="s">
+      <c r="B20" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="157" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="157" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="143"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
+      <c r="A21" s="152"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="144"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
     </row>
     <row r="23" spans="1:5" ht="41.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="136" t="s">
+      <c r="A23" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="141" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="134" t="s">
+      <c r="C23" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="134" t="s">
+      <c r="D23" s="141" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
@@ -5656,10 +5692,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="138"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
+      <c r="A24" s="140"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -5703,6 +5739,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -5714,20 +5764,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5755,13 +5791,13 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="177" t="s">
+      <c r="C1" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="137" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5769,36 +5805,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="156"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="138"/>
     </row>
     <row r="3" spans="1:4" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134" t="s">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="143" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="138"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="158"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="144"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="141" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -5806,15 +5842,15 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="138"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="139" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -5828,7 +5864,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="137"/>
+      <c r="A8" s="145"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -5840,7 +5876,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="138"/>
+      <c r="A9" s="140"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -5848,23 +5884,23 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134" t="s">
+      <c r="B10" s="141"/>
+      <c r="C10" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="134"/>
+      <c r="D10" s="141"/>
     </row>
     <row r="11" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="138"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
     </row>
     <row r="12" spans="1:4" ht="52.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="139" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -5873,57 +5909,57 @@
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="139" t="s">
+      <c r="D12" s="148" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="137"/>
+      <c r="A13" s="145"/>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="140"/>
+      <c r="D13" s="149"/>
     </row>
     <row r="14" spans="1:4" ht="87.65" x14ac:dyDescent="0.25">
-      <c r="A14" s="137"/>
+      <c r="A14" s="145"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="140"/>
+      <c r="D14" s="149"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="137"/>
+      <c r="A15" s="145"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="140"/>
+      <c r="D15" s="149"/>
     </row>
     <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="137"/>
+      <c r="A16" s="145"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="140"/>
+      <c r="D16" s="149"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="137"/>
+      <c r="A17" s="145"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="140"/>
+      <c r="D17" s="149"/>
     </row>
     <row r="18" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="138"/>
+      <c r="A18" s="140"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="141"/>
+      <c r="D18" s="150"/>
     </row>
     <row r="19" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -5940,60 +5976,51 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="145" t="s">
+      <c r="B20" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="157" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="143"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
+      <c r="A21" s="152"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
     </row>
     <row r="22" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="144"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
     </row>
     <row r="23" spans="1:4" ht="41.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="136" t="s">
+      <c r="A23" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134" t="s">
+      <c r="B23" s="141"/>
+      <c r="C23" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="134" t="s">
+      <c r="D23" s="141" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="138"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
+      <c r="A24" s="140"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -6010,6 +6037,15 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -54161,7 +54197,7 @@
       </c>
     </row>
     <row r="2" spans="1:16041" x14ac:dyDescent="0.25">
-      <c r="A2" s="112"/>
+      <c r="A2" s="113"/>
       <c r="B2" s="47" t="s">
         <v>365</v>
       </c>
@@ -70206,7 +70242,7 @@
       <c r="WRY2" s="70"/>
     </row>
     <row r="3" spans="1:16041" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="71" t="s">
         <v>409</v>
       </c>
@@ -70239,7 +70275,7 @@
       </c>
     </row>
     <row r="4" spans="1:16041" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="41" t="s">
         <v>411</v>
       </c>
@@ -70272,7 +70308,7 @@
       </c>
     </row>
     <row r="5" spans="1:16041" ht="30.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="36" t="s">
         <v>414</v>
       </c>
@@ -70305,7 +70341,7 @@
       </c>
     </row>
     <row r="6" spans="1:16041" ht="40.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="89" t="s">
         <v>412</v>
       </c>
@@ -70334,7 +70370,7 @@
       </c>
     </row>
     <row r="7" spans="1:16041" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="114" t="s">
         <v>368</v>
       </c>
       <c r="B7" s="90" t="s">
@@ -70342,7 +70378,7 @@
       </c>
     </row>
     <row r="8" spans="1:16041" x14ac:dyDescent="0.25">
-      <c r="A8" s="113"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="36" t="s">
         <v>428</v>
       </c>
@@ -70351,7 +70387,7 @@
       </c>
     </row>
     <row r="9" spans="1:16041" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="36" t="s">
         <v>429</v>
       </c>
@@ -70360,7 +70396,7 @@
       </c>
     </row>
     <row r="10" spans="1:16041" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="113"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="36" t="s">
         <v>421</v>
       </c>
@@ -70369,33 +70405,33 @@
       </c>
     </row>
     <row r="11" spans="1:16041" x14ac:dyDescent="0.25">
-      <c r="A11" s="113"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="36" t="s">
         <v>422</v>
       </c>
       <c r="C11" s="86"/>
     </row>
     <row r="12" spans="1:16041" x14ac:dyDescent="0.25">
-      <c r="A12" s="113"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="36" t="s">
         <v>420</v>
       </c>
       <c r="C12" s="86"/>
     </row>
     <row r="13" spans="1:16041" x14ac:dyDescent="0.25">
-      <c r="A13" s="113"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="36" t="s">
         <v>425</v>
       </c>
       <c r="C13" s="86"/>
     </row>
     <row r="14" spans="1:16041" x14ac:dyDescent="0.25">
-      <c r="A14" s="113"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="36"/>
       <c r="C14" s="86"/>
     </row>
     <row r="15" spans="1:16041" x14ac:dyDescent="0.25">
-      <c r="A15" s="113"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="91" t="s">
         <v>417</v>
       </c>
@@ -70404,19 +70440,19 @@
       </c>
     </row>
     <row r="16" spans="1:16041" x14ac:dyDescent="0.25">
-      <c r="A16" s="113"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="36"/>
       <c r="C16" s="86"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="113"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="36" t="s">
         <v>423</v>
       </c>
       <c r="C17" s="86"/>
     </row>
     <row r="18" spans="1:3" ht="26.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="113"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="36" t="s">
         <v>424</v>
       </c>
@@ -70425,7 +70461,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" s="72" customFormat="1" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="113"/>
+      <c r="A19" s="114"/>
       <c r="B19" s="83" t="s">
         <v>439</v>
       </c>
@@ -70434,7 +70470,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="113"/>
+      <c r="A20" s="114"/>
       <c r="B20" s="87" t="s">
         <v>435</v>
       </c>
@@ -70443,7 +70479,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="113"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="91" t="s">
         <v>436</v>
       </c>
@@ -70452,7 +70488,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="113"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="91" t="s">
         <v>437</v>
       </c>
@@ -70461,7 +70497,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="30.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="113"/>
+      <c r="A23" s="114"/>
       <c r="B23" s="91" t="s">
         <v>438</v>
       </c>
@@ -70502,7 +70538,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="34.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="113" t="s">
+      <c r="A28" s="114" t="s">
         <v>375</v>
       </c>
       <c r="B28" s="36" t="s">
@@ -70513,7 +70549,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="113"/>
+      <c r="A29" s="114"/>
       <c r="B29" t="s">
         <v>370</v>
       </c>
@@ -70522,7 +70558,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="113"/>
+      <c r="A30" s="114"/>
       <c r="B30" t="s">
         <v>372</v>
       </c>
@@ -70531,7 +70567,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="113"/>
+      <c r="A31" s="114"/>
       <c r="B31" t="s">
         <v>373</v>
       </c>
@@ -70540,7 +70576,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="113"/>
+      <c r="A32" s="114"/>
       <c r="B32" t="s">
         <v>374</v>
       </c>
@@ -70549,7 +70585,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="113"/>
+      <c r="A33" s="114"/>
       <c r="B33" t="s">
         <v>369</v>
       </c>
@@ -70558,7 +70594,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="113"/>
+      <c r="A34" s="114"/>
       <c r="B34" t="s">
         <v>371</v>
       </c>
@@ -70597,7 +70633,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="113" t="s">
+      <c r="A39" s="114" t="s">
         <v>377</v>
       </c>
       <c r="B39" s="81" t="s">
@@ -70605,13 +70641,13 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="113"/>
+      <c r="A40" s="114"/>
       <c r="B40" s="75" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="113"/>
+      <c r="A41" s="114"/>
       <c r="B41" s="77" t="s">
         <v>536</v>
       </c>
@@ -70620,7 +70656,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="113"/>
+      <c r="A42" s="114"/>
       <c r="B42" s="77" t="s">
         <v>440</v>
       </c>
@@ -70629,7 +70665,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="113"/>
+      <c r="A43" s="114"/>
       <c r="B43" s="77" t="s">
         <v>391</v>
       </c>
@@ -70638,7 +70674,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="113"/>
+      <c r="A44" s="114"/>
       <c r="B44" s="78" t="s">
         <v>388</v>
       </c>
@@ -70647,7 +70683,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="113"/>
+      <c r="A45" s="114"/>
       <c r="B45" s="77" t="s">
         <v>476</v>
       </c>
@@ -70656,7 +70692,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="113"/>
+      <c r="A46" s="114"/>
       <c r="B46" s="79" t="s">
         <v>392</v>
       </c>
@@ -70665,7 +70701,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="113"/>
+      <c r="A47" s="114"/>
       <c r="B47" s="77" t="s">
         <v>389</v>
       </c>
@@ -70674,7 +70710,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="113"/>
+      <c r="A48" s="114"/>
       <c r="B48" s="77" t="s">
         <v>390</v>
       </c>
@@ -70683,7 +70719,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="34.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="113"/>
+      <c r="A49" s="114"/>
       <c r="B49" s="77" t="s">
         <v>396</v>
       </c>
@@ -70692,11 +70728,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="34.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="113"/>
+      <c r="A50" s="114"/>
       <c r="B50" s="77"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="113"/>
+      <c r="A51" s="114"/>
       <c r="B51" s="77" t="s">
         <v>477</v>
       </c>
@@ -70705,7 +70741,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="113"/>
+      <c r="A52" s="114"/>
       <c r="B52" s="77"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -70824,8 +70860,8 @@
   <dimension ref="A1:AB53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -70833,7 +70869,7 @@
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="36.21875" customWidth="1"/>
     <col min="5" max="5" width="47.44140625" customWidth="1"/>
     <col min="6" max="6" width="26.5546875" customWidth="1"/>
     <col min="7" max="7" width="14.21875" customWidth="1"/>
@@ -71291,13 +71327,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" s="93">
         <f t="shared" si="1"/>
         <v>525</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="33">
         <v>0.36458333333333331</v>
       </c>
@@ -71311,89 +71347,131 @@
       <c r="E34" t="s">
         <v>582</v>
       </c>
-      <c r="F34" s="178" t="s">
+      <c r="F34" s="112" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" s="93">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>813</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>584</v>
+      </c>
+      <c r="B37" s="33">
+        <v>0.56458333333333333</v>
+      </c>
       <c r="C37" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>(B38-B37)*24*60</f>
+        <v>62.000000000000099</v>
+      </c>
+      <c r="D37" t="s">
+        <v>585</v>
+      </c>
+      <c r="E37" t="s">
+        <v>586</v>
+      </c>
+      <c r="F37" t="s">
+        <v>586</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="33">
+        <v>0.60763888888888895</v>
+      </c>
       <c r="C38" s="93">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-875.00000000000011</v>
+      </c>
+      <c r="D38" t="s">
+        <v>587</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>588</v>
+      </c>
       <c r="C40" s="93">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="33">
+        <v>0.35555555555555557</v>
+      </c>
       <c r="C41" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>(B42-B41)*24*60</f>
+        <v>9.9999999999999645</v>
+      </c>
+      <c r="D41" t="s">
+        <v>591</v>
+      </c>
+      <c r="E41" t="s">
+        <v>589</v>
+      </c>
+      <c r="F41" t="s">
+        <v>590</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="33">
+        <v>0.36249999999999999</v>
+      </c>
       <c r="C42" s="93">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-522</v>
+      </c>
+      <c r="D42" t="s">
+        <v>592</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -71480,13 +71558,13 @@
       <c r="A2" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="115" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="115" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="117" t="s">
@@ -71518,16 +71596,16 @@
       <c r="A4" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="115" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="115" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -71553,17 +71631,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="115" t="s">
         <v>355</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114" t="s">
+      <c r="D6" s="115"/>
+      <c r="E6" s="115" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -71589,19 +71667,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="115" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="114" t="s">
+      <c r="D8" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="114" t="s">
+      <c r="E8" s="115" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -71627,36 +71705,36 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="114" t="s">
+      <c r="E10" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="114" t="s">
+      <c r="F10" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="114" t="s">
+      <c r="G10" s="115" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="1:7" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="116"/>
@@ -71669,14 +71747,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="E6:E7"/>
@@ -71692,6 +71762,14 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -72038,271 +72116,295 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="124" t="s">
         <v>483</v>
       </c>
-      <c r="B2" s="126"/>
+      <c r="B2" s="127"/>
       <c r="C2" s="106" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="129" t="s">
+      <c r="A3" s="125"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="130" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="124"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="129"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="130"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="130" t="s">
+      <c r="A5" s="125"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="131" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="125"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="131"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="132"/>
     </row>
     <row r="7" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="124" t="s">
         <v>487</v>
       </c>
-      <c r="B7" s="126"/>
+      <c r="B7" s="127"/>
       <c r="C7" s="106" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="124"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="129" t="s">
+      <c r="A8" s="125"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="130" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="124"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="129"/>
+      <c r="A9" s="125"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="130"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="124"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="130" t="s">
+      <c r="A10" s="125"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="131" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="125"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="131"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="132"/>
     </row>
     <row r="12" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="124" t="s">
         <v>488</v>
       </c>
-      <c r="B12" s="126"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="106" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="124"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="129" t="s">
+      <c r="A13" s="125"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="130" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="124"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="129"/>
+      <c r="A14" s="125"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="130"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="124"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="130" t="s">
+      <c r="A15" s="125"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="131" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="125"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="131"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="132"/>
     </row>
     <row r="17" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="124" t="s">
         <v>489</v>
       </c>
-      <c r="B17" s="126"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="106" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="124"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="129" t="s">
+      <c r="A18" s="125"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="130" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="129"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="130"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="124"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="130" t="s">
+      <c r="A20" s="125"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="131" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="125"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="131"/>
+      <c r="A21" s="126"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="132"/>
     </row>
     <row r="22" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="124" t="s">
         <v>490</v>
       </c>
-      <c r="B22" s="126"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="106" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="124"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="129" t="s">
+      <c r="A23" s="125"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="130" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="124"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="129"/>
+      <c r="A24" s="125"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="130"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="124"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="130" t="s">
+      <c r="A25" s="125"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="131" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="125"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="131"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="132"/>
     </row>
     <row r="27" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
-      <c r="A27" s="123" t="s">
+      <c r="A27" s="124" t="s">
         <v>491</v>
       </c>
-      <c r="B27" s="126"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="106" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="124"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="129" t="s">
+      <c r="A28" s="125"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="130" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="124"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="129"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="130"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="124"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="130" t="s">
+      <c r="A30" s="125"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="131" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="125"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="131"/>
+      <c r="A31" s="126"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="132"/>
     </row>
     <row r="32" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
-      <c r="A32" s="123" t="s">
+      <c r="A32" s="124" t="s">
         <v>492</v>
       </c>
-      <c r="B32" s="126"/>
+      <c r="B32" s="127"/>
       <c r="C32" s="106" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="124"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="129" t="s">
+      <c r="A33" s="125"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="130" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="124"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="129"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="130"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="124"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="130" t="s">
+      <c r="A35" s="125"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="131" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="125"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="131"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="132"/>
     </row>
     <row r="37" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
-      <c r="A37" s="123" t="s">
+      <c r="A37" s="124" t="s">
         <v>493</v>
       </c>
-      <c r="B37" s="126"/>
+      <c r="B37" s="127"/>
       <c r="C37" s="106" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="124"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="129" t="s">
+      <c r="A38" s="125"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="130" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="124"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="129"/>
+      <c r="A39" s="125"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="130"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="124"/>
-      <c r="B40" s="127"/>
-      <c r="C40" s="130" t="s">
+      <c r="A40" s="125"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="131" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="125"/>
-      <c r="B41" s="128"/>
-      <c r="C41" s="131"/>
+      <c r="A41" s="126"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="C33:C34"/>
@@ -72311,30 +72413,6 @@
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -72363,13 +72441,13 @@
       <c r="A1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="133" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="137" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -72380,36 +72458,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="156"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="138"/>
     </row>
     <row r="3" spans="1:5" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134" t="s">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="143" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="138"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="158"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="144"/>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="141" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="141" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="66" t="s">
@@ -72417,15 +72495,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="138"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
       <c r="D6" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="139" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -72439,7 +72517,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="137"/>
+      <c r="A8" s="145"/>
       <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
@@ -72451,7 +72529,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="138"/>
+      <c r="A9" s="140"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64" t="s">
@@ -72459,83 +72537,83 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="139" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134" t="s">
+      <c r="B10" s="141"/>
+      <c r="C10" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="134"/>
+      <c r="D10" s="141"/>
     </row>
     <row r="11" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="138"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
     </row>
     <row r="12" spans="1:5" ht="52.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="139" t="s">
         <v>283</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="139" t="s">
+      <c r="D12" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="132" t="s">
+      <c r="E12" s="146" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="137"/>
+      <c r="A13" s="145"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="66"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="147"/>
     </row>
     <row r="14" spans="1:5" ht="87.65" x14ac:dyDescent="0.25">
-      <c r="A14" s="137"/>
+      <c r="A14" s="145"/>
       <c r="B14" s="5"/>
       <c r="C14" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="140"/>
-      <c r="E14" s="133"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="147"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="137"/>
+      <c r="A15" s="145"/>
       <c r="B15" s="5"/>
       <c r="C15" s="66"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="133"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="147"/>
     </row>
     <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="137"/>
+      <c r="A16" s="145"/>
       <c r="B16" s="5"/>
       <c r="C16" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="133"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="147"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="137"/>
+      <c r="A17" s="145"/>
       <c r="B17" s="5"/>
       <c r="C17" s="66"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="133"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="147"/>
     </row>
     <row r="18" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="138"/>
+      <c r="A18" s="140"/>
       <c r="B18" s="6"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="133"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="147"/>
     </row>
     <row r="19" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="s">
@@ -72552,30 +72630,30 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="145" t="s">
+      <c r="B20" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="157" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="157" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="143"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
+      <c r="A21" s="152"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="144"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
     </row>
     <row r="23" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
@@ -72626,20 +72704,6 @@
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="E12:E18"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
@@ -72648,6 +72712,20 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -73013,13 +73091,13 @@
       <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="161" t="s">
+      <c r="A12" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="161"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
       <c r="F12" s="51"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
@@ -73027,11 +73105,11 @@
       <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="162"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
+      <c r="A13" s="163"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
       <c r="F13" s="51"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
@@ -73069,12 +73147,12 @@
       <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="164" t="s">
         <v>351</v>
       </c>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="165"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="166"/>
       <c r="E15" s="34"/>
       <c r="F15" s="68"/>
     </row>
@@ -73267,19 +73345,19 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="159"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
+      <c r="A22" s="160"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
       <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="160"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
+      <c r="A23" s="161"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
       <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">

--- a/时间管理大师/2022/第三期/habit.xlsx
+++ b/时间管理大师/2022/第三期/habit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2154" windowHeight="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="习惯培养卡--拖延对策sop" sheetId="16" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17005" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17005" uniqueCount="592">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -2313,9 +2313,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>分心冲动</t>
-  </si>
-  <si>
     <t>隐藏意识
 1. 我什么还看 什么都，我问能不能像别人一样厉害，别人随手做的。【像不劳而获】
 2. 我用这么长时间，没效果，还不如什么不做【不改进你方法】</t>
@@ -2954,7 +2951,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -3646,7 +3644,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="9" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3663,6 +3660,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3684,9 +3684,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3716,29 +3713,11 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3746,20 +3725,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3797,6 +3770,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3827,35 +3824,37 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="9" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
+    <cellStyle name="60% - 着色 2" xfId="9" builtinId="36"/>
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="6" builtinId="8"/>
@@ -3865,7 +3864,6 @@
     <cellStyle name="适中" xfId="2" builtinId="28"/>
     <cellStyle name="输出" xfId="5" builtinId="21"/>
     <cellStyle name="输入" xfId="7" builtinId="20"/>
-    <cellStyle name="着色 2" xfId="9" builtinId="33"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4145,163 +4143,166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" customWidth="1"/>
-    <col min="2" max="2" width="42.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" customWidth="1"/>
-    <col min="8" max="8" width="47.21875" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="42.125" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="59.875" customWidth="1"/>
+    <col min="8" max="8" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="62.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:6" s="178" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="178" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="178" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="178" t="s">
         <v>500</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="178" t="s">
         <v>501</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="178" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="178" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="82.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+    <row r="2" spans="1:6" ht="82.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="107" t="s">
         <v>504</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="108" t="s">
         <v>505</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="107" t="s">
         <v>506</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="109" t="s">
         <v>507</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="107" t="s">
         <v>508</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="107" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="77.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+    <row r="3" spans="1:6" ht="77.849999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="107" t="s">
         <v>510</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="107" t="s">
         <v>511</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="107" t="s">
         <v>506</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="110" t="s">
         <v>512</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="107" t="s">
         <v>513</v>
       </c>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="109" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+    <row r="4" spans="1:6" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="107" t="s">
         <v>516</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="107" t="s">
         <v>517</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="107" t="s">
         <v>518</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="107" t="s">
         <v>519</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="109" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="53.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="s">
+    <row r="5" spans="1:6" ht="53.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="107" t="s">
         <v>521</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="107" t="s">
         <v>522</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="107" t="s">
         <v>523</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="107" t="s">
         <v>524</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="107" t="s">
         <v>508</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="109" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+    <row r="6" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="107" t="s">
         <v>363</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="110" t="s">
         <v>526</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="107" t="s">
         <v>527</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="D6" s="110" t="s">
         <v>528</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="107" t="s">
         <v>529</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="109" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="s">
+    <row r="8" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+      <c r="A8" s="107" t="s">
         <v>531</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="110" t="s">
         <v>532</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="107" t="s">
+        <v>517</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>533</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="E8" s="107" t="s">
+        <v>519</v>
+      </c>
+      <c r="F8" s="109" t="s">
         <v>534</v>
       </c>
-      <c r="E8" s="108" t="s">
-        <v>519</v>
-      </c>
-      <c r="F8" s="110" t="s">
-        <v>535</v>
-      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="82" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -4329,15 +4330,15 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.109375" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="85.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.125" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="4" max="4" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>330</v>
       </c>
@@ -4348,7 +4349,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="58" t="s">
         <v>314</v>
       </c>
@@ -4357,7 +4358,7 @@
       </c>
       <c r="C2" s="36"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
         <v>317</v>
       </c>
@@ -4366,7 +4367,7 @@
       </c>
       <c r="C3" s="36"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
         <v>318</v>
       </c>
@@ -4375,8 +4376,8 @@
       </c>
       <c r="C4" s="36"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="167" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="166" t="s">
         <v>298</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -4386,20 +4387,20 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="168"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="167"/>
       <c r="B6" s="36" t="s">
         <v>327</v>
       </c>
       <c r="C6" s="36"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="168"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="167"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="168" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="167" t="s">
         <v>306</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -4409,15 +4410,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="168"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="167"/>
       <c r="B9" s="36" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="36"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="168" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="167" t="s">
         <v>305</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -4427,15 +4428,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="168"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="167"/>
       <c r="B11" s="36" t="s">
         <v>329</v>
       </c>
       <c r="C11" s="36"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="168" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="167" t="s">
         <v>304</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -4445,14 +4446,14 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="168"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="167"/>
       <c r="B13" s="36" t="s">
         <v>324</v>
       </c>
       <c r="C13" s="36"/>
     </row>
-    <row r="14" spans="1:3" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>307</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="58" t="s">
         <v>198</v>
       </c>
@@ -4482,7 +4483,7 @@
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="44" t="s">
         <v>199</v>
       </c>
@@ -4501,7 +4502,7 @@
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
         <v>248</v>
       </c>
@@ -4522,7 +4523,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
         <v>247</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
         <v>246</v>
       </c>
@@ -4564,7 +4565,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="44"/>
@@ -4573,7 +4574,7 @@
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="44" t="s">
@@ -4590,7 +4591,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="58" t="s">
         <v>292</v>
       </c>
@@ -4607,7 +4608,7 @@
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
@@ -4616,7 +4617,7 @@
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="23.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
         <v>285</v>
       </c>
@@ -4633,7 +4634,7 @@
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7" ht="33.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
         <v>270</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
         <v>275</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="25.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>333</v>
       </c>
@@ -4694,7 +4695,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="63" t="s">
         <v>272</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>268</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>309</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>309</v>
       </c>
@@ -4759,16 +4760,16 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -4788,7 +4789,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>217</v>
       </c>
@@ -4808,8 +4809,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>223</v>
       </c>
@@ -4843,12 +4844,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>288</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>290</v>
       </c>
@@ -4879,15 +4880,15 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>80</v>
       </c>
@@ -4901,21 +4902,21 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="172"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="169"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="169"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="172"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
     </row>
-    <row r="4" spans="1:4" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>313</v>
       </c>
@@ -4929,7 +4930,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -4937,21 +4938,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="177" t="s">
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="170" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="177"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="170"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
     </row>
-    <row r="8" spans="1:4" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="21" t="s">
         <v>90</v>
@@ -4963,21 +4964,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="175" t="s">
+    <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="171" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="175"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="171"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
     </row>
-    <row r="11" spans="1:4" ht="41.35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>316</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="41.35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>95</v>
       </c>
@@ -5005,51 +5006,51 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="173" t="s">
+    <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="172" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="173" t="s">
         <v>99</v>
       </c>
       <c r="C13" s="174"/>
       <c r="D13" s="174"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="173"/>
-      <c r="B14" s="176"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="172"/>
+      <c r="B14" s="173"/>
       <c r="C14" s="174"/>
       <c r="D14" s="174"/>
     </row>
-    <row r="15" spans="1:4" ht="87.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="169" t="s">
+    <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="176" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="172"/>
-      <c r="D15" s="169"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="168"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="169"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="169"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="168"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="168"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="173"/>
-      <c r="B17" s="173"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="172"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="174"/>
-      <c r="D17" s="173"/>
+      <c r="D17" s="172"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="173"/>
-      <c r="B18" s="173"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="172"/>
+      <c r="B18" s="172"/>
       <c r="C18" s="174"/>
-      <c r="D18" s="173"/>
+      <c r="D18" s="172"/>
     </row>
-    <row r="19" spans="1:4" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>102</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
         <v>106</v>
@@ -5075,110 +5076,94 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="169"/>
-      <c r="B21" s="170" t="s">
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="168"/>
+      <c r="B21" s="175" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="170" t="s">
+      <c r="C21" s="175" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="169" t="s">
+      <c r="D21" s="168" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="169"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="169"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="168"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="168"/>
     </row>
-    <row r="24" spans="1:4" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="23.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="23.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="29" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="23.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="23.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="23.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="23.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
     </row>
-    <row r="40" spans="1:1" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="31" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -5191,6 +5176,22 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5206,21 +5207,21 @@
       <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="13" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="13" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -5264,7 +5265,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5352,7 +5353,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5396,7 +5397,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5452,82 +5453,82 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="1" max="1" width="38.25" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="41.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="153" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="155" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="138"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="156"/>
     </row>
-    <row r="3" spans="1:5" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+    <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="143" t="s">
+      <c r="D3" s="157" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="144"/>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="138"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="158"/>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="134" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="140"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="138"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="139" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="136" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -5540,8 +5541,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="137"/>
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
@@ -5552,89 +5553,89 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="140"/>
+    <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="138"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="139" t="s">
+    <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141" t="s">
+      <c r="B10" s="134"/>
+      <c r="C10" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="141"/>
+      <c r="D10" s="134"/>
     </row>
-    <row r="11" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
-      <c r="B11" s="142"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="138"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
     </row>
-    <row r="12" spans="1:5" ht="52.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="139" t="s">
+    <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A12" s="136" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="139" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="137"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="149"/>
+      <c r="D13" s="140"/>
     </row>
-    <row r="14" spans="1:5" ht="87.65" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="A14" s="137"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="149"/>
+      <c r="D14" s="140"/>
       <c r="E14">
         <f>B14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="137"/>
       <c r="B15" s="5"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="149"/>
+      <c r="D15" s="140"/>
     </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
+    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="137"/>
       <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="149"/>
+      <c r="D16" s="140"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="137"/>
       <c r="B17" s="5"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="149"/>
+      <c r="D17" s="140"/>
     </row>
-    <row r="18" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="140"/>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="138"/>
       <c r="B18" s="6"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="150"/>
+      <c r="D18" s="141"/>
     </row>
-    <row r="19" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>23</v>
       </c>
@@ -5648,111 +5649,97 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="151" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="157" t="s">
+      <c r="C20" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="152"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="143"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
     </row>
-    <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="153"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
+    <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="144"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
     </row>
-    <row r="23" spans="1:5" ht="41.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="139" t="s">
+    <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="141" t="s">
+      <c r="D23" s="134" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="140"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="138"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -5764,6 +5751,20 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5779,78 +5780,78 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="1" max="1" width="38.25" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
     <col min="4" max="4" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="41.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="178" t="s">
+      <c r="C1" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="155" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="138"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="156"/>
     </row>
-    <row r="3" spans="1:4" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+    <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="143" t="s">
+      <c r="D3" s="157" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="144"/>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="138"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="158"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="134" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="140"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="138"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="139" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="136" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -5863,8 +5864,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="137"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -5875,32 +5876,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="140"/>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="138"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="139" t="s">
+    <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141" t="s">
+      <c r="B10" s="134"/>
+      <c r="C10" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="141"/>
+      <c r="D10" s="134"/>
     </row>
-    <row r="11" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
-      <c r="B11" s="142"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="138"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
     </row>
-    <row r="12" spans="1:4" ht="52.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="139" t="s">
+    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A12" s="136" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -5909,59 +5910,59 @@
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="139" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="137"/>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="149"/>
+      <c r="D13" s="140"/>
     </row>
-    <row r="14" spans="1:4" ht="87.65" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
+    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A14" s="137"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="149"/>
+      <c r="D14" s="140"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="137"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="149"/>
+      <c r="D15" s="140"/>
     </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
+    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="137"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="149"/>
+      <c r="D16" s="140"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="137"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="149"/>
+      <c r="D17" s="140"/>
     </row>
-    <row r="18" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="140"/>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="138"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="150"/>
+      <c r="D18" s="141"/>
     </row>
-    <row r="19" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -5975,52 +5976,61 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="151" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="157" t="s">
+      <c r="C20" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="148" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="152"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="143"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
     </row>
-    <row r="22" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="153"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="144"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
     </row>
-    <row r="23" spans="1:4" ht="41.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="139" t="s">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="141"/>
-      <c r="C23" s="141" t="s">
+      <c r="B23" s="134"/>
+      <c r="C23" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="141" t="s">
+      <c r="D23" s="134" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="140"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="138"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -6037,15 +6047,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6057,21 +6058,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WRY71"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A70" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="93.77734375" customWidth="1"/>
-    <col min="3" max="3" width="78.21875" customWidth="1"/>
-    <col min="4" max="4" width="65.44140625" customWidth="1"/>
-    <col min="5" max="5" width="55.33203125" customWidth="1"/>
-    <col min="6" max="6" width="54.77734375" customWidth="1"/>
-    <col min="7" max="7" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="93.75" customWidth="1"/>
+    <col min="3" max="3" width="78.25" customWidth="1"/>
+    <col min="4" max="4" width="65.5" customWidth="1"/>
+    <col min="5" max="5" width="55.375" customWidth="1"/>
+    <col min="6" max="6" width="54.75" customWidth="1"/>
+    <col min="7" max="7" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16041" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16041" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>367</v>
       </c>
@@ -54196,8 +54197,8 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:16041" x14ac:dyDescent="0.25">
-      <c r="A2" s="113"/>
+    <row r="2" spans="1:16041" x14ac:dyDescent="0.2">
+      <c r="A2" s="112"/>
       <c r="B2" s="47" t="s">
         <v>365</v>
       </c>
@@ -70241,8 +70242,8 @@
       <c r="WRX2" s="70"/>
       <c r="WRY2" s="70"/>
     </row>
-    <row r="3" spans="1:16041" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="113"/>
+    <row r="3" spans="1:16041" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="112"/>
       <c r="B3" s="71" t="s">
         <v>409</v>
       </c>
@@ -70274,8 +70275,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:16041" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113"/>
+    <row r="4" spans="1:16041" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="112"/>
       <c r="B4" s="41" t="s">
         <v>411</v>
       </c>
@@ -70307,8 +70308,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:16041" ht="30.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+    <row r="5" spans="1:16041" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="112"/>
       <c r="B5" s="36" t="s">
         <v>414</v>
       </c>
@@ -70340,8 +70341,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:16041" ht="40.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113"/>
+    <row r="6" spans="1:16041" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="112"/>
       <c r="B6" s="89" t="s">
         <v>412</v>
       </c>
@@ -70369,16 +70370,16 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:16041" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="114" t="s">
+    <row r="7" spans="1:16041" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="113" t="s">
         <v>368</v>
       </c>
       <c r="B7" s="90" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="1:16041" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
+    <row r="8" spans="1:16041" x14ac:dyDescent="0.2">
+      <c r="A8" s="113"/>
       <c r="B8" s="36" t="s">
         <v>428</v>
       </c>
@@ -70386,8 +70387,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="9" spans="1:16041" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
+    <row r="9" spans="1:16041" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="113"/>
       <c r="B9" s="36" t="s">
         <v>429</v>
       </c>
@@ -70395,8 +70396,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:16041" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
+    <row r="10" spans="1:16041" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="113"/>
       <c r="B10" s="36" t="s">
         <v>421</v>
       </c>
@@ -70404,34 +70405,34 @@
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:16041" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
+    <row r="11" spans="1:16041" x14ac:dyDescent="0.2">
+      <c r="A11" s="113"/>
       <c r="B11" s="36" t="s">
         <v>422</v>
       </c>
       <c r="C11" s="86"/>
     </row>
-    <row r="12" spans="1:16041" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
+    <row r="12" spans="1:16041" x14ac:dyDescent="0.2">
+      <c r="A12" s="113"/>
       <c r="B12" s="36" t="s">
         <v>420</v>
       </c>
       <c r="C12" s="86"/>
     </row>
-    <row r="13" spans="1:16041" x14ac:dyDescent="0.25">
-      <c r="A13" s="114"/>
+    <row r="13" spans="1:16041" x14ac:dyDescent="0.2">
+      <c r="A13" s="113"/>
       <c r="B13" s="36" t="s">
         <v>425</v>
       </c>
       <c r="C13" s="86"/>
     </row>
-    <row r="14" spans="1:16041" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
+    <row r="14" spans="1:16041" x14ac:dyDescent="0.2">
+      <c r="A14" s="113"/>
       <c r="B14" s="36"/>
       <c r="C14" s="86"/>
     </row>
-    <row r="15" spans="1:16041" x14ac:dyDescent="0.25">
-      <c r="A15" s="114"/>
+    <row r="15" spans="1:16041" x14ac:dyDescent="0.2">
+      <c r="A15" s="113"/>
       <c r="B15" s="91" t="s">
         <v>417</v>
       </c>
@@ -70439,20 +70440,20 @@
         <v>416</v>
       </c>
     </row>
-    <row r="16" spans="1:16041" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
+    <row r="16" spans="1:16041" x14ac:dyDescent="0.2">
+      <c r="A16" s="113"/>
       <c r="B16" s="36"/>
       <c r="C16" s="86"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="113"/>
       <c r="B17" s="36" t="s">
         <v>423</v>
       </c>
       <c r="C17" s="86"/>
     </row>
-    <row r="18" spans="1:3" ht="26.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
+    <row r="18" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="113"/>
       <c r="B18" s="36" t="s">
         <v>424</v>
       </c>
@@ -70460,8 +70461,8 @@
         <v>416</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="72" customFormat="1" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="114"/>
+    <row r="19" spans="1:3" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="113"/>
       <c r="B19" s="83" t="s">
         <v>439</v>
       </c>
@@ -70469,8 +70470,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="114"/>
+    <row r="20" spans="1:3" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="113"/>
       <c r="B20" s="87" t="s">
         <v>435</v>
       </c>
@@ -70478,8 +70479,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="114"/>
+    <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="113"/>
       <c r="B21" s="91" t="s">
         <v>436</v>
       </c>
@@ -70487,8 +70488,8 @@
         <v>430</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="114"/>
+    <row r="22" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="113"/>
       <c r="B22" s="91" t="s">
         <v>437</v>
       </c>
@@ -70496,8 +70497,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="114"/>
+    <row r="23" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="113"/>
       <c r="B23" s="91" t="s">
         <v>438</v>
       </c>
@@ -70505,7 +70506,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="80"/>
       <c r="B24" s="91" t="s">
         <v>399</v>
@@ -70514,13 +70515,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="85"/>
       <c r="B25" s="91" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="33.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="84"/>
       <c r="B26" s="36" t="s">
         <v>432</v>
@@ -70529,7 +70530,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="23.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="38" t="s">
         <v>433</v>
       </c>
@@ -70537,8 +70538,8 @@
         <v>385</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="114" t="s">
+    <row r="28" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="113" t="s">
         <v>375</v>
       </c>
       <c r="B28" s="36" t="s">
@@ -70548,8 +70549,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="114"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="113"/>
       <c r="B29" t="s">
         <v>370</v>
       </c>
@@ -70557,8 +70558,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="114"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="113"/>
       <c r="B30" t="s">
         <v>372</v>
       </c>
@@ -70566,8 +70567,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="114"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="113"/>
       <c r="B31" t="s">
         <v>373</v>
       </c>
@@ -70575,8 +70576,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="114"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="113"/>
       <c r="B32" t="s">
         <v>374</v>
       </c>
@@ -70584,8 +70585,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="114"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="113"/>
       <c r="B33" t="s">
         <v>369</v>
       </c>
@@ -70593,8 +70594,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="114"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="113"/>
       <c r="B34" t="s">
         <v>371</v>
       </c>
@@ -70602,13 +70603,13 @@
         <v>407</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="96"/>
       <c r="B35" s="91" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>447</v>
       </c>
@@ -70616,7 +70617,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>446</v>
       </c>
@@ -70624,7 +70625,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>445</v>
       </c>
@@ -70632,31 +70633,31 @@
         <v>449</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="114" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="113" t="s">
         <v>377</v>
       </c>
       <c r="B39" s="81" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="114"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="113"/>
       <c r="B40" s="75" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="114"/>
+    <row r="41" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="113"/>
       <c r="B41" s="77" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="114"/>
+    <row r="42" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="113"/>
       <c r="B42" s="77" t="s">
         <v>440</v>
       </c>
@@ -70664,8 +70665,8 @@
         <v>475</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="114"/>
+    <row r="43" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="113"/>
       <c r="B43" s="77" t="s">
         <v>391</v>
       </c>
@@ -70673,8 +70674,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="114"/>
+    <row r="44" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="113"/>
       <c r="B44" s="78" t="s">
         <v>388</v>
       </c>
@@ -70682,8 +70683,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="114"/>
+    <row r="45" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="113"/>
       <c r="B45" s="77" t="s">
         <v>476</v>
       </c>
@@ -70691,8 +70692,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="114"/>
+    <row r="46" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="113"/>
       <c r="B46" s="79" t="s">
         <v>392</v>
       </c>
@@ -70700,8 +70701,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="114"/>
+    <row r="47" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="113"/>
       <c r="B47" s="77" t="s">
         <v>389</v>
       </c>
@@ -70709,8 +70710,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="114"/>
+    <row r="48" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="113"/>
       <c r="B48" s="77" t="s">
         <v>390</v>
       </c>
@@ -70718,8 +70719,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="34.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="114"/>
+    <row r="49" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="113"/>
       <c r="B49" s="77" t="s">
         <v>396</v>
       </c>
@@ -70727,12 +70728,12 @@
         <v>406</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="34.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="114"/>
+    <row r="50" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="113"/>
       <c r="B50" s="77"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="114"/>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="113"/>
       <c r="B51" s="77" t="s">
         <v>477</v>
       </c>
@@ -70740,11 +70741,11 @@
         <v>478</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="114"/>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="113"/>
       <c r="B52" s="77"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" s="98" t="s">
         <v>456</v>
       </c>
@@ -70752,10 +70753,10 @@
         <v>452</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" s="98"/>
     </row>
-    <row r="56" spans="1:3" ht="324" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="324" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="99" t="s">
         <v>474</v>
       </c>
@@ -70763,7 +70764,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="163.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="163.69999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="99" t="s">
         <v>457</v>
       </c>
@@ -70771,12 +70772,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="189.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="189.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="99" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="99" t="s">
         <v>458</v>
       </c>
@@ -70784,12 +70785,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="105.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="99" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B61" s="97" t="s">
         <v>451</v>
       </c>
@@ -70797,7 +70798,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B62" s="97" t="s">
         <v>455</v>
       </c>
@@ -70805,10 +70806,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="127.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="127.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="97"/>
     </row>
-    <row r="64" spans="1:3" ht="51.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="97" t="s">
         <v>461</v>
       </c>
@@ -70816,23 +70817,23 @@
         <v>454</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="58.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="97" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="97" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="65.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="97" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:2" ht="216" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" ht="93" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="2:2" ht="213.75" x14ac:dyDescent="0.2">
       <c r="B71" s="99" t="s">
         <v>466</v>
       </c>
@@ -70859,23 +70860,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="36.21875" customWidth="1"/>
-    <col min="5" max="5" width="47.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="36.25" customWidth="1"/>
+    <col min="5" max="5" width="47.5" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
         <v>479</v>
       </c>
@@ -70889,10 +70890,10 @@
         <v>443</v>
       </c>
       <c r="E1" s="95" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F1" s="95" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G1" s="93"/>
       <c r="H1" s="94"/>
@@ -70917,7 +70918,7 @@
       <c r="AA1" s="94"/>
       <c r="AB1" s="94"/>
     </row>
-    <row r="2" spans="1:28" ht="40.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="103">
         <v>44849</v>
       </c>
@@ -70952,7 +70953,7 @@
       <c r="Z2" s="94"/>
       <c r="AA2" s="94"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="69">
         <v>44853</v>
       </c>
@@ -70964,16 +70965,16 @@
         <v>237.99999999999994</v>
       </c>
       <c r="D3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E3" t="s">
         <v>538</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>539</v>
       </c>
-      <c r="F3" t="s">
-        <v>540</v>
-      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B4" s="33">
         <v>0.56874999999999998</v>
       </c>
@@ -70982,22 +70983,22 @@
         <v>-818.99999999999989</v>
       </c>
       <c r="D4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E4" t="s">
         <v>541</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>542</v>
       </c>
-      <c r="F4" t="s">
-        <v>543</v>
-      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C5" s="93">
         <f>(B6-B5)*24*60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="69">
         <v>44862</v>
       </c>
@@ -71006,7 +71007,7 @@
         <v>506.99999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="33">
         <v>0.3520833333333333</v>
       </c>
@@ -71015,7 +71016,7 @@
         <v>9.000000000000048</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="33">
         <v>0.35833333333333334</v>
       </c>
@@ -71024,10 +71025,10 @@
         <v>65.000000000000014</v>
       </c>
       <c r="D8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9" s="33">
         <v>0.40347222222222223</v>
       </c>
@@ -71036,16 +71037,16 @@
         <v>52.999999999999972</v>
       </c>
       <c r="D9" t="s">
+        <v>544</v>
+      </c>
+      <c r="E9" t="s">
         <v>545</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>546</v>
       </c>
-      <c r="F9" t="s">
-        <v>547</v>
-      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B10" s="33">
         <v>0.44027777777777777</v>
       </c>
@@ -71054,13 +71055,13 @@
         <v>217.00000000000003</v>
       </c>
       <c r="D10" t="s">
+        <v>547</v>
+      </c>
+      <c r="E10" t="s">
         <v>548</v>
       </c>
-      <c r="E10" t="s">
-        <v>549</v>
-      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" s="33">
         <v>0.59097222222222223</v>
       </c>
@@ -71069,16 +71070,16 @@
         <v>319</v>
       </c>
       <c r="D11" t="s">
+        <v>549</v>
+      </c>
+      <c r="E11" t="s">
         <v>550</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>551</v>
       </c>
-      <c r="F11" t="s">
-        <v>552</v>
-      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12" s="33">
         <v>0.8125</v>
       </c>
@@ -71087,16 +71088,16 @@
         <v>10.999999999999961</v>
       </c>
       <c r="D12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33">
         <v>0.82013888888888886</v>
       </c>
@@ -71105,16 +71106,16 @@
         <v>-662.99999999999989</v>
       </c>
       <c r="D13" t="s">
+        <v>555</v>
+      </c>
+      <c r="E13" t="s">
         <v>556</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>557</v>
       </c>
-      <c r="F13" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B14" s="33">
         <v>0.35972222222222222</v>
       </c>
@@ -71123,40 +71124,40 @@
         <v>-518</v>
       </c>
       <c r="D14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F14" s="91" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C16" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18" s="93">
         <f>(B19-B18)*24*60</f>
         <v>450</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="69">
         <v>44869</v>
       </c>
@@ -71168,25 +71169,25 @@
         <v>-450</v>
       </c>
       <c r="D19" t="s">
+        <v>561</v>
+      </c>
+      <c r="E19" t="s">
         <v>562</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>563</v>
       </c>
-      <c r="F19" t="s">
-        <v>564</v>
-      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" s="93"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="69">
         <v>44879</v>
       </c>
@@ -71198,10 +71199,10 @@
         <v>285</v>
       </c>
       <c r="D22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="33">
         <v>0.57638888888888895</v>
       </c>
@@ -71210,10 +71211,10 @@
         <v>75.999999999999886</v>
       </c>
       <c r="D23" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="23.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="33">
         <v>0.62916666666666665</v>
       </c>
@@ -71222,16 +71223,16 @@
         <v>227</v>
       </c>
       <c r="D24" t="s">
+        <v>567</v>
+      </c>
+      <c r="E24" t="s">
+        <v>569</v>
+      </c>
+      <c r="F24" t="s">
         <v>568</v>
       </c>
-      <c r="E24" t="s">
-        <v>570</v>
-      </c>
-      <c r="F24" t="s">
-        <v>569</v>
-      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="33">
         <v>0.78680555555555554</v>
       </c>
@@ -71240,10 +71241,10 @@
         <v>67.000000000000085</v>
       </c>
       <c r="D25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="33">
         <v>0.83333333333333337</v>
       </c>
@@ -71252,22 +71253,22 @@
         <v>-1200</v>
       </c>
       <c r="D26" t="s">
+        <v>571</v>
+      </c>
+      <c r="E26" t="s">
         <v>572</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>573</v>
       </c>
-      <c r="F26" t="s">
-        <v>574</v>
-      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="69">
         <v>44880</v>
       </c>
@@ -71276,7 +71277,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="33">
         <v>0.36319444444444443</v>
       </c>
@@ -71285,16 +71286,16 @@
         <v>857</v>
       </c>
       <c r="D29" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="33">
         <v>0.95833333333333337</v>
       </c>
@@ -71303,37 +71304,37 @@
         <v>-1380</v>
       </c>
       <c r="D30" t="s">
+        <v>576</v>
+      </c>
+      <c r="E30" t="s">
         <v>577</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>578</v>
       </c>
-      <c r="F30" t="s">
-        <v>579</v>
-      </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C31" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C32" s="93">
         <f>(B33-B32)*24*60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C33" s="93">
         <f t="shared" si="1"/>
         <v>525</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="33">
         <v>0.36458333333333331</v>
       </c>
@@ -71342,30 +71343,30 @@
         <v>-525</v>
       </c>
       <c r="D34" t="s">
+        <v>580</v>
+      </c>
+      <c r="E34" t="s">
         <v>581</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" s="111" t="s">
         <v>582</v>
       </c>
-      <c r="F34" s="112" t="s">
-        <v>583</v>
-      </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C35" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C36" s="93">
         <f t="shared" si="1"/>
         <v>813</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B37" s="33">
         <v>0.56458333333333333</v>
@@ -71375,16 +71376,16 @@
         <v>62.000000000000099</v>
       </c>
       <c r="D37" t="s">
+        <v>584</v>
+      </c>
+      <c r="E37" t="s">
         <v>585</v>
       </c>
-      <c r="E37" t="s">
-        <v>586</v>
-      </c>
       <c r="F37" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38" s="33">
         <v>0.60763888888888895</v>
       </c>
@@ -71393,25 +71394,25 @@
         <v>-875.00000000000011</v>
       </c>
       <c r="D38" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C39" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C40" s="93">
         <f t="shared" si="1"/>
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" s="33">
         <v>0.35555555555555557</v>
       </c>
@@ -71420,16 +71421,16 @@
         <v>9.9999999999999645</v>
       </c>
       <c r="D41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E41" t="s">
+        <v>588</v>
+      </c>
+      <c r="F41" t="s">
         <v>589</v>
       </c>
-      <c r="F41" t="s">
-        <v>590</v>
-      </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" s="33">
         <v>0.36249999999999999</v>
       </c>
@@ -71438,70 +71439,70 @@
         <v>-522</v>
       </c>
       <c r="D42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C43" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C44" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C45" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C46" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C47" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C48" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -71522,16 +71523,16 @@
       <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="43.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="54.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>57</v>
       </c>
@@ -71554,17 +71555,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="114" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="114" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="117" t="s">
@@ -71577,7 +71578,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="122"/>
       <c r="B3" s="116"/>
       <c r="C3" s="11" t="s">
@@ -71592,20 +71593,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="114" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="115" t="s">
+      <c r="E4" s="114" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -71615,7 +71616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="120"/>
       <c r="B5" s="116"/>
       <c r="C5" s="11" t="s">
@@ -71630,18 +71631,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="114" t="s">
         <v>355</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115" t="s">
+      <c r="D6" s="114"/>
+      <c r="E6" s="114" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -71651,7 +71652,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="116"/>
       <c r="B7" s="116"/>
       <c r="C7" s="11" t="s">
@@ -71666,20 +71667,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="115" t="s">
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="114" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="114" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -71689,7 +71690,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="116"/>
       <c r="B9" s="116"/>
       <c r="C9" s="11" t="s">
@@ -71704,39 +71705,39 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="115" t="s">
+      <c r="F10" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="115" t="s">
+      <c r="G10" s="114" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="123"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="115"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
     </row>
-    <row r="12" spans="1:7" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="116"/>
       <c r="B12" s="116"/>
       <c r="C12" s="116"/>
@@ -71747,6 +71748,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="E6:E7"/>
@@ -71762,14 +71771,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -71785,17 +71786,17 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="100" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="100" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="102" customWidth="1"/>
-    <col min="6" max="6" width="68.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="100" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="100" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="102" customWidth="1"/>
+    <col min="6" max="6" width="68.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>362</v>
       </c>
@@ -71815,7 +71816,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="69">
         <v>44602</v>
       </c>
@@ -71832,7 +71833,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="69">
         <v>44604</v>
       </c>
@@ -71849,7 +71850,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="69">
         <v>44605</v>
       </c>
@@ -71866,7 +71867,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="69">
         <v>44606</v>
       </c>
@@ -71883,7 +71884,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="69">
         <v>44607</v>
       </c>
@@ -71900,7 +71901,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="69">
         <v>44608</v>
       </c>
@@ -71917,7 +71918,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="69">
         <v>44609</v>
       </c>
@@ -71931,7 +71932,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="69">
         <v>44610</v>
       </c>
@@ -71948,7 +71949,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="69">
         <v>44614</v>
       </c>
@@ -71962,7 +71963,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="69">
         <v>44614</v>
       </c>
@@ -71979,7 +71980,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="69">
         <v>44615</v>
       </c>
@@ -71999,7 +72000,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="101" t="s">
         <v>469</v>
       </c>
@@ -72019,7 +72020,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="69">
         <v>44628</v>
       </c>
@@ -72053,13 +72054,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.33203125" customWidth="1"/>
-    <col min="2" max="2" width="52.109375" customWidth="1"/>
+    <col min="1" max="1" width="62.375" customWidth="1"/>
+    <col min="2" max="2" width="52.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>403</v>
       </c>
@@ -72067,7 +72068,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>401</v>
       </c>
@@ -72075,7 +72076,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>494</v>
       </c>
@@ -72097,14 +72098,14 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="73.21875" customWidth="1"/>
-    <col min="3" max="3" width="73.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="73.25" customWidth="1"/>
+    <col min="3" max="3" width="73.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="104" t="s">
         <v>480</v>
       </c>
@@ -72115,272 +72116,296 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="123" t="s">
         <v>483</v>
       </c>
-      <c r="B2" s="127"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="106" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="130" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="124"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="129" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="125"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="130"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="124"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="129"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="131" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="124"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="130" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="126"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="132"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="125"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="131"/>
     </row>
-    <row r="7" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
-      <c r="A7" s="124" t="s">
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="123" t="s">
         <v>487</v>
       </c>
-      <c r="B7" s="127"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="106" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="130" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="124"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="129" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="130"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="124"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="129"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="131" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="124"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="130" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="126"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="132"/>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="125"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="131"/>
     </row>
-    <row r="12" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
-      <c r="A12" s="124" t="s">
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="123" t="s">
         <v>488</v>
       </c>
-      <c r="B12" s="127"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="106" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="130" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="124"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="129" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="125"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="130"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="124"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="129"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="125"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="131" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="124"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="130" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="126"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="132"/>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="125"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="131"/>
     </row>
-    <row r="17" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
-      <c r="A17" s="124" t="s">
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="123" t="s">
         <v>489</v>
       </c>
-      <c r="B17" s="127"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="106" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="125"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="130" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="124"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="129" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="125"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="130"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="124"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="129"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="125"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="131" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="124"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="130" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="126"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="132"/>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="125"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="131"/>
     </row>
-    <row r="22" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
-      <c r="A22" s="124" t="s">
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="123" t="s">
         <v>490</v>
       </c>
-      <c r="B22" s="127"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="106" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="125"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="130" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="124"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="129" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="125"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="130"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="124"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="129"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="125"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="131" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="124"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="130" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="126"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="132"/>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="125"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="131"/>
     </row>
-    <row r="27" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
-      <c r="A27" s="124" t="s">
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="123" t="s">
         <v>491</v>
       </c>
-      <c r="B27" s="127"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="106" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="125"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="130" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="124"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="129" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="125"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="130"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="124"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="129"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="125"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="131" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="124"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="130" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="126"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="132"/>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="125"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="131"/>
     </row>
-    <row r="32" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
-      <c r="A32" s="124" t="s">
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="123" t="s">
         <v>492</v>
       </c>
-      <c r="B32" s="127"/>
+      <c r="B32" s="126"/>
       <c r="C32" s="106" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="125"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="130" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="124"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="129" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="125"/>
-      <c r="B34" s="128"/>
-      <c r="C34" s="130"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="124"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="129"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="125"/>
-      <c r="B35" s="128"/>
-      <c r="C35" s="131" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="124"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="130" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="126"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="132"/>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="125"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="131"/>
     </row>
-    <row r="37" spans="1:3" ht="16.3" x14ac:dyDescent="0.25">
-      <c r="A37" s="124" t="s">
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="123" t="s">
         <v>493</v>
       </c>
-      <c r="B37" s="127"/>
+      <c r="B37" s="126"/>
       <c r="C37" s="106" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="125"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="130" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="124"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="129" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="125"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="130"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="124"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="129"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="125"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="131" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="124"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="130" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="126"/>
-      <c r="B41" s="129"/>
-      <c r="C41" s="132"/>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="125"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C3:C4"/>
@@ -72389,30 +72414,6 @@
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -72428,82 +72429,82 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="1" max="1" width="38.25" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="41.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="153" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="155" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="138"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="156"/>
     </row>
-    <row r="3" spans="1:5" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+    <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="143" t="s">
+      <c r="D3" s="157" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="144"/>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="138"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="158"/>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="134" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="134" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="66" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="140"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="138"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="139" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="136" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -72516,8 +72517,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="137"/>
       <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
@@ -72528,94 +72529,94 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="140"/>
+    <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="138"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="139" t="s">
+    <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="136" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141" t="s">
+      <c r="B10" s="134"/>
+      <c r="C10" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="141"/>
+      <c r="D10" s="134"/>
     </row>
-    <row r="11" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
-      <c r="B11" s="142"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="138"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
     </row>
-    <row r="12" spans="1:5" ht="52.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="139" t="s">
+    <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A12" s="136" t="s">
         <v>283</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="132" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="137"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="66"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="147"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="133"/>
     </row>
-    <row r="14" spans="1:5" ht="87.65" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="A14" s="137"/>
       <c r="B14" s="5"/>
       <c r="C14" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="149"/>
-      <c r="E14" s="147"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="133"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="137"/>
       <c r="B15" s="5"/>
       <c r="C15" s="66"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="147"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="133"/>
     </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
+    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="137"/>
       <c r="B16" s="5"/>
       <c r="C16" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="149"/>
-      <c r="E16" s="147"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="133"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="137"/>
       <c r="B17" s="5"/>
       <c r="C17" s="66"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="147"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="133"/>
     </row>
-    <row r="18" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="140"/>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="138"/>
       <c r="B18" s="6"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="147"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="133"/>
     </row>
-    <row r="19" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
         <v>23</v>
       </c>
@@ -72629,74 +72630,74 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="151" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="157" t="s">
+      <c r="C20" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="152"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="143"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
     </row>
-    <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="153"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
+    <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="144"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
     </row>
-    <row r="23" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
       <c r="B23" s="65"/>
       <c r="C23" s="65"/>
       <c r="D23" s="65"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -72704,6 +72705,20 @@
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="E12:E18"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
@@ -72712,20 +72727,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -72741,18 +72742,18 @@
       <selection activeCell="B16" sqref="B16:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
-    <col min="2" max="4" width="52.44140625" customWidth="1"/>
-    <col min="5" max="5" width="45.77734375" customWidth="1"/>
-    <col min="6" max="7" width="50.33203125" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
-    <col min="9" max="9" width="47.88671875" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" customWidth="1"/>
+    <col min="2" max="4" width="52.5" customWidth="1"/>
+    <col min="5" max="5" width="45.75" customWidth="1"/>
+    <col min="6" max="7" width="50.375" customWidth="1"/>
+    <col min="8" max="8" width="36.375" customWidth="1"/>
+    <col min="9" max="9" width="47.875" customWidth="1"/>
+    <col min="10" max="10" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="46" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="46" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
         <v>266</v>
       </c>
@@ -72784,7 +72785,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>166</v>
       </c>
@@ -72814,7 +72815,7 @@
       </c>
       <c r="J2" s="35"/>
     </row>
-    <row r="3" spans="1:10" ht="15.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
         <v>190</v>
       </c>
@@ -72846,7 +72847,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="33.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>337</v>
       </c>
@@ -72878,7 +72879,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>349</v>
       </c>
@@ -72910,7 +72911,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="38.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>338</v>
       </c>
@@ -72942,7 +72943,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="40.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>345</v>
       </c>
@@ -72974,7 +72975,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="59.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
         <v>339</v>
       </c>
@@ -73006,7 +73007,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="51" customFormat="1" ht="27.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="51" customFormat="1" ht="27.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="51" t="s">
         <v>340</v>
       </c>
@@ -73038,7 +73039,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>341</v>
       </c>
@@ -73070,7 +73071,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="51" t="s">
         <v>359</v>
       </c>
@@ -73090,33 +73091,33 @@
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="162" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="161" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="162"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="162"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
       <c r="F12" s="51"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="37"/>
       <c r="J12" s="37"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="163"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="162"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
       <c r="F13" s="51"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
     </row>
-    <row r="14" spans="1:10" s="46" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="46" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="44" t="s">
         <v>167</v>
       </c>
@@ -73146,17 +73147,17 @@
       </c>
       <c r="J14" s="44"/>
     </row>
-    <row r="15" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="164" t="s">
+    <row r="15" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="163" t="s">
         <v>351</v>
       </c>
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="166"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="165"/>
       <c r="E15" s="34"/>
       <c r="F15" s="68"/>
     </row>
-    <row r="16" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
         <v>348</v>
       </c>
@@ -73188,7 +73189,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>346</v>
       </c>
@@ -73220,7 +73221,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>293</v>
       </c>
@@ -73252,7 +73253,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
         <v>295</v>
       </c>
@@ -73284,7 +73285,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>191</v>
       </c>
@@ -73316,7 +73317,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="40.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
         <v>192</v>
       </c>
@@ -73344,23 +73345,23 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="159"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
       <c r="F22" s="61"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="161"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="160"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
       <c r="F23" s="62"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="58" t="s">
         <v>198</v>
       </c>
@@ -73382,7 +73383,7 @@
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="44" t="s">
         <v>199</v>
       </c>
@@ -73404,7 +73405,7 @@
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
         <v>248</v>
       </c>
@@ -73428,7 +73429,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
         <v>247</v>
       </c>
@@ -73452,7 +73453,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
         <v>246</v>
       </c>
@@ -73476,7 +73477,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -73486,7 +73487,7 @@
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -73504,7 +73505,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="58" t="s">
         <v>292</v>
       </c>
@@ -73524,7 +73525,7 @@
       <c r="G31" s="36"/>
       <c r="H31" s="36"/>
     </row>
-    <row r="32" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -73534,7 +73535,7 @@
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
     </row>
-    <row r="33" spans="1:8" ht="23.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
         <v>285</v>
       </c>
@@ -73554,7 +73555,7 @@
       <c r="G33" s="36"/>
       <c r="H33" s="36"/>
     </row>
-    <row r="34" spans="1:8" ht="33.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
         <v>270</v>
       </c>
@@ -73578,7 +73579,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
         <v>275</v>
       </c>
@@ -73602,7 +73603,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="25.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
         <v>333</v>
       </c>
@@ -73622,7 +73623,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="63" t="s">
         <v>272</v>
       </c>
@@ -73636,7 +73637,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>280</v>
       </c>
@@ -73644,7 +73645,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>310</v>
       </c>
@@ -73661,7 +73662,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>309</v>
       </c>
